--- a/7 - Motion In Two Dimensions/7-02 - Uniform Circular Motion.xlsx
+++ b/7 - Motion In Two Dimensions/7-02 - Uniform Circular Motion.xlsx
@@ -1,25 +1,142 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Public\K12-Physics-S1_SY2223\7 - Motion In Two Dimensions\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB9A986-B4AD-490A-8D37-3C37075365DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Caf with Mass Velocity Radius" sheetId="1" r:id="rId1"/>
+    <sheet name="Caf with Mass Radius Period" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+  <si>
+    <t>Objective:</t>
+  </si>
+  <si>
+    <t>A 70.0 kg man stands on the edge of a merry-go-round with a radius of 5.0 m.</t>
+  </si>
+  <si>
+    <t>He is moving with a uniform velocity of 2.0 m/s.</t>
+  </si>
+  <si>
+    <t>What is his centripetal acceleration?</t>
+  </si>
+  <si>
+    <t>What is the magnitude of the centripetal force that acts on him?</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>Velocity</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>Radius</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Unknowns: Ac = ?, Fc = ?</t>
+  </si>
+  <si>
+    <t>Ac</t>
+  </si>
+  <si>
+    <t>Ac = v^2 / r</t>
+  </si>
+  <si>
+    <t>m/s^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fc = m * Ac </t>
+  </si>
+  <si>
+    <t>Fc</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Centripetal Acceleration</t>
+  </si>
+  <si>
+    <t>Centripetal Force</t>
+  </si>
+  <si>
+    <t>A 0.015 kg rubber stopper is attached to a 1.00 m string and swung overhead in a circle to make one revolution in 1.50 s.</t>
+  </si>
+  <si>
+    <t>Find the following:</t>
+  </si>
+  <si>
+    <t>• Velocity of the stopper</t>
+  </si>
+  <si>
+    <t>• Centripetal acceleration of the stopper</t>
+  </si>
+  <si>
+    <t>• Centripetal force exerted by the string on the stopper</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Unknowns: v = ?, ac = ?, Fc = ?</t>
+  </si>
+  <si>
+    <t>v = 2 * PI * Radius / time</t>
+  </si>
+  <si>
+    <t>Time (Period)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -37,7 +154,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +162,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +463,274 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1">
+        <v>70</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <f>D8*D8/D9</f>
+        <v>0.8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14">
+        <f>D7*D13</f>
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FF4646-C9B9-4A1D-8D8F-93895B0B288E}">
+  <dimension ref="B2:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <f xml:space="preserve"> 2 * PI() * D9 / D10</f>
+        <v>4.1887902047863905</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <f>D14*D14 / D9</f>
+        <v>17.545963379714411</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16">
+        <f>D8*D15</f>
+        <v>0.26318945069571614</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/7 - Motion In Two Dimensions/7-02 - Uniform Circular Motion.xlsx
+++ b/7 - Motion In Two Dimensions/7-02 - Uniform Circular Motion.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Public\K12-Physics-S1_SY2223\7 - Motion In Two Dimensions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB9A986-B4AD-490A-8D37-3C37075365DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6392CA-23DC-4349-BF72-2D892337142F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10395" yWindow="3135" windowWidth="14280" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Caf with Mass Velocity Radius" sheetId="1" r:id="rId1"/>
     <sheet name="Caf with Mass Radius Period" sheetId="2" r:id="rId2"/>
+    <sheet name="Centrifuge" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
   <si>
     <t>Objective:</t>
   </si>
@@ -131,12 +132,75 @@
   </si>
   <si>
     <t>Time (Period)</t>
+  </si>
+  <si>
+    <t>A 70.0 kg astronaut is training for accelerations that he will experience upon reentry.</t>
+  </si>
+  <si>
+    <t>He is placed in a centrifuge (r = 15.0 m) and spun at a constant angular velocity of 13.2 rpm.</t>
+  </si>
+  <si>
+    <t>Angular Velocity (RPM)</t>
+  </si>
+  <si>
+    <t>Av</t>
+  </si>
+  <si>
+    <t>rpm</t>
+  </si>
+  <si>
+    <t>Angular Velocity (RPS)</t>
+  </si>
+  <si>
+    <t>rps</t>
+  </si>
+  <si>
+    <t>Angular Velocity</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>rad/s</t>
+  </si>
+  <si>
+    <t>Linear Velocity</t>
+  </si>
+  <si>
+    <t>v = r * w</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>Gravity</t>
+  </si>
+  <si>
+    <t>Acceleration</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>a = Ca/ABS(g)</t>
+  </si>
+  <si>
+    <t>w = RPM * 2 * PI / 60</t>
+  </si>
+  <si>
+    <t>RPS = RPM/60</t>
+  </si>
+  <si>
+    <t>Fc = m * Ac</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -181,9 +245,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,4 +798,198 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA41554-18B4-4D77-B519-67003B5733C1}">
+  <dimension ref="B2:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2">
+        <v>70</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2">
+        <v>13.2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <f>D7/60</f>
+        <v>0.22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <f>D7*2*PI()/60</f>
+        <v>1.3823007675795089</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <f>D6*D9</f>
+        <v>20.734511513692635</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <f>D6*D9*D9</f>
+        <v>28.661331180763494</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13">
+        <f>D11/ABS(D12)</f>
+        <v>2.9246256306901524</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14">
+        <f>D5*D11</f>
+        <v>2006.2931826534445</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/7 - Motion In Two Dimensions/7-02 - Uniform Circular Motion.xlsx
+++ b/7 - Motion In Two Dimensions/7-02 - Uniform Circular Motion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Public\K12-Physics-S1_SY2223\7 - Motion In Two Dimensions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6392CA-23DC-4349-BF72-2D892337142F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19530905-28C6-4707-9E83-D43163290C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10395" yWindow="3135" windowWidth="14280" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -248,7 +248,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -827,7 +827,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -841,7 +842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -855,7 +856,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>34</v>
       </c>

--- a/7 - Motion In Two Dimensions/7-02 - Uniform Circular Motion.xlsx
+++ b/7 - Motion In Two Dimensions/7-02 - Uniform Circular Motion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Public\K12-Physics-S1_SY2223\7 - Motion In Two Dimensions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19530905-28C6-4707-9E83-D43163290C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1768CD55-06AA-452C-BE69-695047B27F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10395" yWindow="3135" windowWidth="14280" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
   <si>
     <t>Objective:</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>Fc = m * Ac</t>
+  </si>
+  <si>
+    <t>Ac = r * w^2</t>
   </si>
 </sst>
 </file>
@@ -938,6 +941,9 @@
       <c r="E11" t="s">
         <v>16</v>
       </c>
+      <c r="F11" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
